--- a/xlsx/country_comparison/group_defended_3_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_3_positive.xlsx
@@ -425,34 +425,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.382076886785003</v>
+        <v>0.401584917718197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.633018990267356</v>
+        <v>0.637778162087043</v>
       </c>
       <c r="D2" t="n">
-        <v>0.553355787515108</v>
+        <v>0.550838157170327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.293729372937294</v>
+        <v>0.296396998452838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.484628749117589</v>
+        <v>0.417081849803477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.586909059326181</v>
+        <v>0.570127697124816</v>
       </c>
       <c r="H2" t="n">
-        <v>0.468247137513088</v>
+        <v>0.518917265906563</v>
       </c>
       <c r="I2" t="n">
-        <v>0.575563262749213</v>
+        <v>0.534191493704453</v>
       </c>
       <c r="J2" t="n">
-        <v>0.451650231018717</v>
+        <v>0.424479767897812</v>
       </c>
       <c r="K2" t="n">
-        <v>0.320989490193126</v>
+        <v>0.395332502056133</v>
       </c>
     </row>
     <row r="3">
@@ -460,34 +460,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.424662360542014</v>
+        <v>0.418116802640659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159224385930774</v>
+        <v>0.16603824268881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.307360143679643</v>
+        <v>0.286241255023842</v>
       </c>
       <c r="E3" t="n">
-        <v>0.485148514851485</v>
+        <v>0.456524566025076</v>
       </c>
       <c r="F3" t="n">
-        <v>0.255609613667641</v>
+        <v>0.395412378179461</v>
       </c>
       <c r="G3" t="n">
-        <v>0.150193287270966</v>
+        <v>0.161158141587076</v>
       </c>
       <c r="H3" t="n">
-        <v>0.311111186294925</v>
+        <v>0.26991147731929</v>
       </c>
       <c r="I3" t="n">
-        <v>0.210022307887246</v>
+        <v>0.239761605193291</v>
       </c>
       <c r="J3" t="n">
-        <v>0.330102129649219</v>
+        <v>0.366607672726037</v>
       </c>
       <c r="K3" t="n">
-        <v>0.317603177008681</v>
+        <v>0.311689912311643</v>
       </c>
     </row>
     <row r="4">
@@ -495,34 +495,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179912659949693</v>
+        <v>0.150543713024043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149469223181291</v>
+        <v>0.162572913497141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.118814680522525</v>
+        <v>0.100922603953725</v>
       </c>
       <c r="E4" t="n">
-        <v>0.167216721672167</v>
+        <v>0.186702773722239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.241524815285439</v>
+        <v>0.166729640366366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.123271365701163</v>
+        <v>0.136003358761598</v>
       </c>
       <c r="H4" t="n">
-        <v>0.175273262139924</v>
+        <v>0.143280020961804</v>
       </c>
       <c r="I4" t="n">
-        <v>0.205405420354532</v>
+        <v>0.19604593026058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.148828331559889</v>
+        <v>0.162029812146505</v>
       </c>
       <c r="K4" t="n">
-        <v>0.256114038094564</v>
+        <v>0.22356670774197</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/group_defended_3_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_3_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Humans or Sentient beings</t>
@@ -419,110 +425,134 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401584917718197</v>
+        <v>0.446323819000182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.637778162087043</v>
+        <v>0.500031777371219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.550838157170327</v>
+        <v>0.403728342686857</v>
       </c>
       <c r="E2" t="n">
-        <v>0.296396998452838</v>
+        <v>0.606454502103649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.417081849803477</v>
+        <v>0.543166443561924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.570127697124816</v>
+        <v>0.40862481827325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.518917265906563</v>
+        <v>0.520635206979125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.534191493704453</v>
+        <v>0.45163215452811</v>
       </c>
       <c r="J2" t="n">
-        <v>0.424479767897812</v>
+        <v>0.555843554662492</v>
       </c>
       <c r="K2" t="n">
-        <v>0.395332502056133</v>
+        <v>0.295463321618657</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.568215620604128</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.43396167722944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.418116802640659</v>
+        <v>0.333002355422151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16603824268881</v>
+        <v>0.300537158888977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.286241255023842</v>
+        <v>0.421398669942422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.456524566025076</v>
+        <v>0.191854984973649</v>
       </c>
       <c r="F3" t="n">
-        <v>0.395412378179461</v>
+        <v>0.289001041734699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.161158141587076</v>
+        <v>0.377133090520575</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26991147731929</v>
+        <v>0.262477886538552</v>
       </c>
       <c r="I3" t="n">
-        <v>0.239761605193291</v>
+        <v>0.32286139809918</v>
       </c>
       <c r="J3" t="n">
-        <v>0.366607672726037</v>
+        <v>0.220040188372387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.311689912311643</v>
+        <v>0.451967910042794</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.156534240851949</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.338566502379068</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.150543713024043</v>
+        <v>0.168467905417066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.162572913497141</v>
+        <v>0.156531801849446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100922603953725</v>
+        <v>0.141785829240512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.186702773722239</v>
+        <v>0.16615846782681</v>
       </c>
       <c r="F4" t="n">
-        <v>0.166729640366366</v>
+        <v>0.10824933493899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.136003358761598</v>
+        <v>0.188864548775754</v>
       </c>
       <c r="H4" t="n">
-        <v>0.143280020961804</v>
+        <v>0.150598969781752</v>
       </c>
       <c r="I4" t="n">
-        <v>0.19604593026058</v>
+        <v>0.187038191288665</v>
       </c>
       <c r="J4" t="n">
-        <v>0.162029812146505</v>
+        <v>0.171252249950601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.22356670774197</v>
+        <v>0.191667834390133</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.141491115102103</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.17529311108781</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/group_defended_3_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_3_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -431,16 +434,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.446323819000182</v>
+        <v>0.453632902569712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.500031777371219</v>
+        <v>0.500031777371218</v>
       </c>
       <c r="D2" t="n">
         <v>0.403728342686857</v>
@@ -467,18 +473,21 @@
         <v>0.295463321618657</v>
       </c>
       <c r="L2" t="n">
+        <v>0.49848234887489</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.568215620604128</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.43396167722944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.333002355422151</v>
+        <v>0.318228826507911</v>
       </c>
       <c r="C3" t="n">
         <v>0.300537158888977</v>
@@ -508,18 +517,21 @@
         <v>0.451967910042794</v>
       </c>
       <c r="L3" t="n">
+        <v>0.227576614712255</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.156534240851949</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.338566502379068</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.168467905417066</v>
+        <v>0.173132661925441</v>
       </c>
       <c r="C4" t="n">
         <v>0.156531801849446</v>
@@ -528,7 +540,7 @@
         <v>0.141785829240512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.16615846782681</v>
+        <v>0.166158467826809</v>
       </c>
       <c r="F4" t="n">
         <v>0.10824933493899</v>
@@ -549,9 +561,12 @@
         <v>0.191667834390133</v>
       </c>
       <c r="L4" t="n">
+        <v>0.201756188330484</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.141491115102103</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.17529311108781</v>
       </c>
     </row>

--- a/xlsx/country_comparison/group_defended_3_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_3_positive.xlsx
@@ -443,7 +443,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.453632902569712</v>
+        <v>0.453581378758874</v>
       </c>
       <c r="C2" t="n">
         <v>0.500031777371218</v>
@@ -470,16 +470,16 @@
         <v>0.555843554662492</v>
       </c>
       <c r="K2" t="n">
-        <v>0.295463321618657</v>
+        <v>0.295505791021036</v>
       </c>
       <c r="L2" t="n">
-        <v>0.49848234887489</v>
+        <v>0.498063798608243</v>
       </c>
       <c r="M2" t="n">
         <v>0.568215620604128</v>
       </c>
       <c r="N2" t="n">
-        <v>0.43396167722944</v>
+        <v>0.434044780311437</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.318228826507911</v>
+        <v>0.318130319930611</v>
       </c>
       <c r="C3" t="n">
         <v>0.300537158888977</v>
@@ -514,16 +514,16 @@
         <v>0.220040188372387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.451967910042794</v>
+        <v>0.451904268645967</v>
       </c>
       <c r="L3" t="n">
-        <v>0.227576614712255</v>
+        <v>0.227706886529004</v>
       </c>
       <c r="M3" t="n">
         <v>0.156534240851949</v>
       </c>
       <c r="N3" t="n">
-        <v>0.338566502379068</v>
+        <v>0.338155063004691</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.173132661925441</v>
+        <v>0.172200105515648</v>
       </c>
       <c r="C4" t="n">
         <v>0.156531801849446</v>
@@ -540,7 +540,7 @@
         <v>0.141785829240512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.166158467826809</v>
+        <v>0.16615846782681</v>
       </c>
       <c r="F4" t="n">
         <v>0.10824933493899</v>
@@ -558,16 +558,16 @@
         <v>0.171252249950601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.191667834390133</v>
+        <v>0.19166544338377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.201756188330484</v>
+        <v>0.194374624175739</v>
       </c>
       <c r="M4" t="n">
         <v>0.141491115102103</v>
       </c>
       <c r="N4" t="n">
-        <v>0.17529311108781</v>
+        <v>0.175591451815085</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/group_defended_3_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_3_positive.xlsx
@@ -443,7 +443,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.453581378758874</v>
+        <v>0.453645056076748</v>
       </c>
       <c r="C2" t="n">
         <v>0.500031777371218</v>
@@ -473,7 +473,7 @@
         <v>0.295505791021036</v>
       </c>
       <c r="L2" t="n">
-        <v>0.498063798608243</v>
+        <v>0.498518803138412</v>
       </c>
       <c r="M2" t="n">
         <v>0.568215620604128</v>
@@ -487,7 +487,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.318130319930611</v>
+        <v>0.318030317882592</v>
       </c>
       <c r="C3" t="n">
         <v>0.300537158888977</v>
@@ -517,7 +517,7 @@
         <v>0.451904268645967</v>
       </c>
       <c r="L3" t="n">
-        <v>0.227706886529004</v>
+        <v>0.22699232463484</v>
       </c>
       <c r="M3" t="n">
         <v>0.156534240851949</v>
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172200105515648</v>
+        <v>0.172370897143246</v>
       </c>
       <c r="C4" t="n">
         <v>0.156531801849446</v>
@@ -540,7 +540,7 @@
         <v>0.141785829240512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.16615846782681</v>
+        <v>0.166158467826809</v>
       </c>
       <c r="F4" t="n">
         <v>0.10824933493899</v>
@@ -561,7 +561,7 @@
         <v>0.19166544338377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.194374624175739</v>
+        <v>0.195595011071219</v>
       </c>
       <c r="M4" t="n">
         <v>0.141491115102103</v>
